--- a/NFL_Data/2002_def_rank.xlsx
+++ b/NFL_Data/2002_def_rank.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2621,11 +2621,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T33">
-    <sortState ref="A2:T33">
-      <sortCondition ref="G1:G33"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:T33"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
